--- a/biology/Médecine/Crise_de_démence_de_Charles_VI_en_la_forêt_du_Mans/Crise_de_démence_de_Charles_VI_en_la_forêt_du_Mans.xlsx
+++ b/biology/Médecine/Crise_de_démence_de_Charles_VI_en_la_forêt_du_Mans/Crise_de_démence_de_Charles_VI_en_la_forêt_du_Mans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crise_de_d%C3%A9mence_de_Charles_VI_en_la_for%C3%AAt_du_Mans</t>
+          <t>Crise_de_démence_de_Charles_VI_en_la_forêt_du_Mans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La crise de démence de Charles VI en la forêt du Mans est, le 5 août 1392, la première manifestation de folie du roi de France Charles VI, en lisière de la forêt du Mans. 
 Après la tentative d'assassinat d'Olivier V de Clisson par Pierre de Craon le 13 juin 1392, ce dernier trouve refuge auprès de Jean IV de Bretagne. Charles VI est pressé par ses oncles et les Marmousets, ceux-ci réclament vengeance pour la tentative de meurtre d'Olivier V de Clisson et la guerre contre le duché de Bretagne. En août 1392, malgré son état fiévreux, Charles VI se rend en Bretagne avec l'armée royale en passant par Le Mans où stationne la majeure partie de ses troupes. Le roi de France prend alors le commandement de l'armée et quitte le Mans pour la Bretagne le 5 août 1392.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crise_de_d%C3%A9mence_de_Charles_VI_en_la_for%C3%AAt_du_Mans</t>
+          <t>Crise_de_démence_de_Charles_VI_en_la_forêt_du_Mans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Première crise de démence de Charles VI</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En ce mois d'août 1392, les chaleurs sont fortes et le roi Charles VI est vêtu d'un surcot (sorte de robe courte) en velours noir et de chausses noires, la tête couverte d'un chaperon rouge écarlate également en velours. Charles VI chevauche très en avant, les princes se tenant à bonne distance pour ne pas l'incommoder.
 Soudain, surgit un homme à la mine patibulaire vêtu d'une tunique blanche qui empoigne brutalement la bride du cheval du souverain, en hurlant : « Arrête, noble roi, ne passe outre, tu es trahi. » Les princes se portent au secours du roi, font lâcher la bride du cheval tenue par l'énergumène, mais tolèrent sa présence pendant une trentaine de minutes à l'arrière de la petite troupe, d'où il continue ses imprécations.
